--- a/Test_868 genes FDR 0.05_ FC 2.xlsx
+++ b/Test_868 genes FDR 0.05_ FC 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berezinm\Documents\GitHub\InterCorrelation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84603207-1AE2-404F-9112-143EE9E04126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E018FF-E47B-4796-9B80-73C12D410C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32865" yWindow="2820" windowWidth="21600" windowHeight="12735" xr2:uid="{851A5061-78FE-459E-AF88-09276516CC0E}"/>
+    <workbookView xWindow="30600" yWindow="1485" windowWidth="21600" windowHeight="12735" xr2:uid="{851A5061-78FE-459E-AF88-09276516CC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3034,12 +3034,14 @@
   <dimension ref="A1:AGK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="JH12" sqref="JH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:869" x14ac:dyDescent="0.25">
@@ -29130,6 +29132,40 @@
       </c>
       <c r="AGK10">
         <v>5.0424300000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:869" x14ac:dyDescent="0.25">
+      <c r="JF12">
+        <f>CORREL(JE2:JE10,JF2:JF10)</f>
+        <v>0.86884518544431166</v>
+      </c>
+      <c r="JG12">
+        <f t="shared" ref="JG12:JM12" si="0">CORREL(JF2:JF10,JG2:JG10)</f>
+        <v>0.68633234572887614</v>
+      </c>
+      <c r="JH12">
+        <f t="shared" si="0"/>
+        <v>0.92215465325010548</v>
+      </c>
+      <c r="JI12">
+        <f t="shared" si="0"/>
+        <v>0.56107597897189265</v>
+      </c>
+      <c r="JJ12">
+        <f t="shared" si="0"/>
+        <v>0.82799431593703643</v>
+      </c>
+      <c r="JK12">
+        <f t="shared" si="0"/>
+        <v>0.88806416071364092</v>
+      </c>
+      <c r="JL12">
+        <f t="shared" si="0"/>
+        <v>0.50979568117465734</v>
+      </c>
+      <c r="JM12">
+        <f t="shared" si="0"/>
+        <v>-0.3369618231104618</v>
       </c>
     </row>
     <row r="14" spans="1:869" x14ac:dyDescent="0.25">
